--- a/biology/Botanique/Lobelia_tupa/Lobelia_tupa.xlsx
+++ b/biology/Botanique/Lobelia_tupa/Lobelia_tupa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lobelia tupa (tupa, Tabac du diable) est une espèce de plante à fleurs endémique du Chili appartenant à la famille campanulacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est native du centre du Chili depuis la région de Valparaíso jusqu'à celle des Lacs[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est native du centre du Chili depuis la région de Valparaíso jusqu'à celle des Lacs.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace atteignant les 4 mètres d'hauteur. Son feuillage est de couleur vert-gris avec des feuilles elliptiques de 10 à 15 cm de longueur. Les fleurs, ressemblant à des trompettes, sont de couleur rouge[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace atteignant les 4 mètres d'hauteur. Son feuillage est de couleur vert-gris avec des feuilles elliptiques de 10 à 15 cm de longueur. Les fleurs, ressemblant à des trompettes, sont de couleur rouge.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son latex est utilisé aussi bien comme abortif que comme hallucinogène, ce qui explique son noms populaire de Tabac du Diable, ce qui est ironique, car cette plante est utilisée pour éliminer les effets de la dépendance à la nicotine, grâce à la lobéline qui est un de ses alcaloides. Pour les indigènes Mapuches du sud du Chili c’est une herbe sacrée. On trouve dans les feuilles de tupa des principes actifs qui stimulent la respiration[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son latex est utilisé aussi bien comme abortif que comme hallucinogène, ce qui explique son noms populaire de Tabac du Diable, ce qui est ironique, car cette plante est utilisée pour éliminer les effets de la dépendance à la nicotine, grâce à la lobéline qui est un de ses alcaloides. Pour les indigènes Mapuches du sud du Chili c’est une herbe sacrée. On trouve dans les feuilles de tupa des principes actifs qui stimulent la respiration.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Lobelia tupa a été décrite par Carl von Linné et publiée en  1763[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lobelia tupa a été décrite par Carl von Linné et publiée en  1763.
 Étymologie
-Lobelia : nom générique créé en l'honneur du botaniste flamand Mathias de l'Obel (1538-1616)[4].
+Lobelia : nom générique créé en l'honneur du botaniste flamand Mathias de l'Obel (1538-1616).
 tupa: épithète  dérivée du nom vernaculaire.
 Synonymie
 Dortmannia berteroi (A.dc.) Kuntze
@@ -634,7 +654,7 @@
 Tupa feuillei var. mucronata (Cav.) Vatke
 Tupa montana Phil.
 Tupa mucronata (Cav.) A.dc.
-Tupa mucronata var. hookeri A.dc[5],[6].</t>
+Tupa mucronata var. hookeri A.dc,.</t>
         </is>
       </c>
     </row>
